--- a/modelos/OBACON4426106/OBACON4426106_Sell in_metricas.xlsx
+++ b/modelos/OBACON4426106/OBACON4426106_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44887</v>
       </c>
       <c r="B2" t="n">
-        <v>34.12990789450977</v>
+        <v>34.12990789440337</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.460345992444326</v>
+        <v>0.9347866740489708</v>
       </c>
       <c r="D2" t="n">
-        <v>68.021856154761</v>
+        <v>67.8014736864839</v>
       </c>
       <c r="E2" t="n">
         <v>84</v>
@@ -496,13 +496,13 @@
         <v>44897</v>
       </c>
       <c r="B3" t="n">
-        <v>2.828750257557203</v>
+        <v>2.828750258137511</v>
       </c>
       <c r="C3" t="n">
-        <v>-33.40060418639505</v>
+        <v>-30.04374079030659</v>
       </c>
       <c r="D3" t="n">
-        <v>39.76936332987469</v>
+        <v>38.64365742925437</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -516,13 +516,13 @@
         <v>44901</v>
       </c>
       <c r="B4" t="n">
-        <v>38.57030306031781</v>
+        <v>38.57030332198259</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3775318641046277</v>
+        <v>1.27032257704697</v>
       </c>
       <c r="D4" t="n">
-        <v>74.60362836826189</v>
+        <v>73.81529928855679</v>
       </c>
       <c r="E4" t="n">
         <v>84</v>
@@ -536,13 +536,13 @@
         <v>44908</v>
       </c>
       <c r="B5" t="n">
-        <v>41.76494024536378</v>
+        <v>41.76494011930399</v>
       </c>
       <c r="C5" t="n">
-        <v>5.231659314371299</v>
+        <v>5.972439801259546</v>
       </c>
       <c r="D5" t="n">
-        <v>76.9653675419011</v>
+        <v>77.37490212832866</v>
       </c>
       <c r="E5" t="n">
         <v>60</v>
@@ -556,13 +556,13 @@
         <v>44915</v>
       </c>
       <c r="B6" t="n">
-        <v>42.68057083954835</v>
+        <v>42.68057083945956</v>
       </c>
       <c r="C6" t="n">
-        <v>5.951837047388799</v>
+        <v>3.750046477557085</v>
       </c>
       <c r="D6" t="n">
-        <v>77.16013297066222</v>
+        <v>77.08858727520955</v>
       </c>
       <c r="E6" t="n">
         <v>84</v>
@@ -576,13 +576,13 @@
         <v>44925</v>
       </c>
       <c r="B7" t="n">
-        <v>11.38614236885343</v>
+        <v>11.38613964310571</v>
       </c>
       <c r="C7" t="n">
-        <v>-24.66508688150807</v>
+        <v>-25.27976301375988</v>
       </c>
       <c r="D7" t="n">
-        <v>49.6271422960537</v>
+        <v>48.64460545591061</v>
       </c>
       <c r="E7" t="n">
         <v>24</v>
@@ -596,13 +596,13 @@
         <v>44960</v>
       </c>
       <c r="B8" t="n">
-        <v>12.51816918514428</v>
+        <v>12.5181691850473</v>
       </c>
       <c r="C8" t="n">
-        <v>-24.0039151749645</v>
+        <v>-25.64828773310968</v>
       </c>
       <c r="D8" t="n">
-        <v>46.720900421243</v>
+        <v>50.14520879303518</v>
       </c>
       <c r="E8" t="n">
         <v>48</v>
@@ -616,13 +616,13 @@
         <v>44964</v>
       </c>
       <c r="B9" t="n">
-        <v>45.16588549220748</v>
+        <v>45.16588549210917</v>
       </c>
       <c r="C9" t="n">
-        <v>10.54133779680009</v>
+        <v>8.611115654221628</v>
       </c>
       <c r="D9" t="n">
-        <v>83.5976801524223</v>
+        <v>81.44157908431117</v>
       </c>
       <c r="E9" t="n">
         <v>84</v>
@@ -636,13 +636,13 @@
         <v>44971</v>
       </c>
       <c r="B10" t="n">
-        <v>50.15281847871751</v>
+        <v>50.15281844361232</v>
       </c>
       <c r="C10" t="n">
-        <v>13.11820372481704</v>
+        <v>13.61885337038665</v>
       </c>
       <c r="D10" t="n">
-        <v>88.44417041852121</v>
+        <v>86.08682782733588</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -656,13 +656,13 @@
         <v>44980</v>
       </c>
       <c r="B11" t="n">
-        <v>-16.05160741350266</v>
+        <v>-16.05160741350305</v>
       </c>
       <c r="C11" t="n">
-        <v>-50.95960894625701</v>
+        <v>-51.97631348404822</v>
       </c>
       <c r="D11" t="n">
-        <v>21.21643744556324</v>
+        <v>20.01716002389388</v>
       </c>
       <c r="E11" t="n">
         <v>48</v>
@@ -676,13 +676,13 @@
         <v>44985</v>
       </c>
       <c r="B12" t="n">
-        <v>47.01141835240388</v>
+        <v>47.01141835240348</v>
       </c>
       <c r="C12" t="n">
-        <v>11.74971566383095</v>
+        <v>10.59249141441956</v>
       </c>
       <c r="D12" t="n">
-        <v>82.73507446627058</v>
+        <v>83.92934041835566</v>
       </c>
       <c r="E12" t="n">
         <v>12</v>
@@ -696,13 +696,13 @@
         <v>44988</v>
       </c>
       <c r="B13" t="n">
-        <v>15.20523088631144</v>
+        <v>15.20523088638247</v>
       </c>
       <c r="C13" t="n">
-        <v>-20.12416630043978</v>
+        <v>-21.02411475780777</v>
       </c>
       <c r="D13" t="n">
-        <v>51.73756989101837</v>
+        <v>51.58077456576123</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -716,13 +716,13 @@
         <v>44992</v>
       </c>
       <c r="B14" t="n">
-        <v>44.24681885906598</v>
+        <v>44.24681885913795</v>
       </c>
       <c r="C14" t="n">
-        <v>10.39294552252018</v>
+        <v>8.570809289469178</v>
       </c>
       <c r="D14" t="n">
-        <v>79.56477417695874</v>
+        <v>80.0331797840759</v>
       </c>
       <c r="E14" t="n">
         <v>36</v>
@@ -736,13 +736,13 @@
         <v>44999</v>
       </c>
       <c r="B15" t="n">
-        <v>43.28674432909565</v>
+        <v>43.28674432900369</v>
       </c>
       <c r="C15" t="n">
-        <v>6.818112880342402</v>
+        <v>6.976126904086017</v>
       </c>
       <c r="D15" t="n">
-        <v>81.37329834789684</v>
+        <v>80.53057900376632</v>
       </c>
       <c r="E15" t="n">
         <v>36</v>
@@ -756,13 +756,13 @@
         <v>45006</v>
       </c>
       <c r="B16" t="n">
-        <v>42.87635978746547</v>
+        <v>42.87635903684419</v>
       </c>
       <c r="C16" t="n">
-        <v>4.089325634124174</v>
+        <v>10.29386265758923</v>
       </c>
       <c r="D16" t="n">
-        <v>77.40054345069801</v>
+        <v>77.20312713525057</v>
       </c>
       <c r="E16" t="n">
         <v>48</v>
@@ -837,19 +837,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>4102.608412253469</v>
+        <v>4102.608412253519</v>
       </c>
       <c r="C2" t="n">
-        <v>64.05160741350267</v>
+        <v>64.05160741350305</v>
       </c>
       <c r="D2" t="n">
-        <v>64.05160741350267</v>
+        <v>64.05160741350305</v>
       </c>
       <c r="E2" t="n">
-        <v>1.334408487781306</v>
+        <v>1.334408487781314</v>
       </c>
       <c r="F2" t="n">
-        <v>1.334408487781306</v>
+        <v>1.334408487781314</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -863,25 +863,25 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>634.6169115043049</v>
+        <v>634.6169115079737</v>
       </c>
       <c r="C3" t="n">
-        <v>25.1916039883193</v>
+        <v>25.19160398839212</v>
       </c>
       <c r="D3" t="n">
-        <v>19.34353085058358</v>
+        <v>19.34353085066759</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5031536912510571</v>
+        <v>0.503153691255027</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5031536912510571</v>
+        <v>0.503153691255027</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7041171795856707</v>
+        <v>0.704117179590516</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -889,22 +889,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1647.674020260546</v>
+        <v>1647.674015470711</v>
       </c>
       <c r="C4" t="n">
-        <v>40.5915510945387</v>
+        <v>40.59155103553831</v>
       </c>
       <c r="D4" t="n">
-        <v>38.71356949006507</v>
+        <v>38.71356945621262</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4825842317324844</v>
+        <v>0.4825842314795503</v>
       </c>
       <c r="F4" t="n">
-        <v>0.51636384583413</v>
+        <v>0.5163638442771301</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6490816710606071</v>
+        <v>0.6490816703290303</v>
       </c>
       <c r="H4" t="n">
         <v>0.25</v>
@@ -915,22 +915,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>618.0268744695531</v>
+        <v>618.0268836896012</v>
       </c>
       <c r="C5" t="n">
-        <v>24.86014630828936</v>
+        <v>24.86014649372769</v>
       </c>
       <c r="D5" t="n">
-        <v>20.80508276414992</v>
+        <v>20.8050831942451</v>
       </c>
       <c r="E5" t="n">
-        <v>1.063159225115354</v>
+        <v>1.06315924089807</v>
       </c>
       <c r="F5" t="n">
-        <v>0.493944144147652</v>
+        <v>0.493944200934648</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7261119842666419</v>
+        <v>0.7261120125056442</v>
       </c>
       <c r="H5" t="n">
         <v>0.75</v>

--- a/modelos/OBACON4426106/OBACON4426106_Sell in_metricas.xlsx
+++ b/modelos/OBACON4426106/OBACON4426106_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44887</v>
       </c>
       <c r="B2" t="n">
-        <v>34.12990789440337</v>
+        <v>35.97015658814955</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9347866740489708</v>
+        <v>3.259500397008213</v>
       </c>
       <c r="D2" t="n">
-        <v>67.8014736864839</v>
+        <v>65.5373166170433</v>
       </c>
       <c r="E2" t="n">
         <v>84</v>
@@ -496,13 +496,13 @@
         <v>44897</v>
       </c>
       <c r="B3" t="n">
-        <v>2.828750258137511</v>
+        <v>8.310432511100014</v>
       </c>
       <c r="C3" t="n">
-        <v>-30.04374079030659</v>
+        <v>-24.13273109856021</v>
       </c>
       <c r="D3" t="n">
-        <v>38.64365742925437</v>
+        <v>39.71190606467844</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -516,13 +516,13 @@
         <v>44901</v>
       </c>
       <c r="B4" t="n">
-        <v>38.57030332198259</v>
+        <v>40.20711128881119</v>
       </c>
       <c r="C4" t="n">
-        <v>1.27032257704697</v>
+        <v>7.738619878791226</v>
       </c>
       <c r="D4" t="n">
-        <v>73.81529928855679</v>
+        <v>70.66477336578502</v>
       </c>
       <c r="E4" t="n">
         <v>84</v>
@@ -536,13 +536,13 @@
         <v>44908</v>
       </c>
       <c r="B5" t="n">
-        <v>41.76494011930399</v>
+        <v>43.30602476564183</v>
       </c>
       <c r="C5" t="n">
-        <v>5.972439801259546</v>
+        <v>10.48041271693821</v>
       </c>
       <c r="D5" t="n">
-        <v>77.37490212832866</v>
+        <v>75.06995823174222</v>
       </c>
       <c r="E5" t="n">
         <v>60</v>
@@ -556,13 +556,13 @@
         <v>44915</v>
       </c>
       <c r="B6" t="n">
-        <v>42.68057083945956</v>
+        <v>44.36450288133113</v>
       </c>
       <c r="C6" t="n">
-        <v>3.750046477557085</v>
+        <v>13.20221195053925</v>
       </c>
       <c r="D6" t="n">
-        <v>77.08858727520955</v>
+        <v>78.00274399489726</v>
       </c>
       <c r="E6" t="n">
         <v>84</v>
@@ -576,13 +576,13 @@
         <v>44925</v>
       </c>
       <c r="B7" t="n">
-        <v>11.38613964310571</v>
+        <v>16.63346670083683</v>
       </c>
       <c r="C7" t="n">
-        <v>-25.27976301375988</v>
+        <v>-18.2205703311099</v>
       </c>
       <c r="D7" t="n">
-        <v>48.64460545591061</v>
+        <v>49.8370385461117</v>
       </c>
       <c r="E7" t="n">
         <v>24</v>
@@ -596,13 +596,13 @@
         <v>44960</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5181691850473</v>
+        <v>17.43653296668205</v>
       </c>
       <c r="C8" t="n">
-        <v>-25.64828773310968</v>
+        <v>-16.01669810312572</v>
       </c>
       <c r="D8" t="n">
-        <v>50.14520879303518</v>
+        <v>51.08870024179933</v>
       </c>
       <c r="E8" t="n">
         <v>48</v>
@@ -616,13 +616,13 @@
         <v>44964</v>
       </c>
       <c r="B9" t="n">
-        <v>45.16588549210917</v>
+        <v>47.39365733057127</v>
       </c>
       <c r="C9" t="n">
-        <v>8.611115654221628</v>
+        <v>15.61012540959542</v>
       </c>
       <c r="D9" t="n">
-        <v>81.44157908431117</v>
+        <v>80.22078721204255</v>
       </c>
       <c r="E9" t="n">
         <v>84</v>
@@ -636,13 +636,13 @@
         <v>44971</v>
       </c>
       <c r="B10" t="n">
-        <v>50.15281844361232</v>
+        <v>52.16662691506677</v>
       </c>
       <c r="C10" t="n">
-        <v>13.61885337038665</v>
+        <v>18.99126009278247</v>
       </c>
       <c r="D10" t="n">
-        <v>86.08682782733588</v>
+        <v>84.25282567360736</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -656,13 +656,13 @@
         <v>44980</v>
       </c>
       <c r="B11" t="n">
-        <v>-16.05160741350305</v>
+        <v>-6.347755232265326</v>
       </c>
       <c r="C11" t="n">
-        <v>-51.97631348404822</v>
+        <v>-41.46321557253403</v>
       </c>
       <c r="D11" t="n">
-        <v>20.01716002389388</v>
+        <v>25.28654645715748</v>
       </c>
       <c r="E11" t="n">
         <v>48</v>
@@ -676,13 +676,13 @@
         <v>44985</v>
       </c>
       <c r="B12" t="n">
-        <v>47.01141835240348</v>
+        <v>49.13296078468713</v>
       </c>
       <c r="C12" t="n">
-        <v>10.59249141441956</v>
+        <v>15.13480425797751</v>
       </c>
       <c r="D12" t="n">
-        <v>83.92934041835566</v>
+        <v>83.26799221676862</v>
       </c>
       <c r="E12" t="n">
         <v>12</v>
@@ -696,13 +696,13 @@
         <v>44988</v>
       </c>
       <c r="B13" t="n">
-        <v>15.20523088638247</v>
+        <v>19.62519941944284</v>
       </c>
       <c r="C13" t="n">
-        <v>-21.02411475780777</v>
+        <v>-15.11879200920718</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58077456576123</v>
+        <v>55.52387460372079</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -716,13 +716,13 @@
         <v>44992</v>
       </c>
       <c r="B14" t="n">
-        <v>44.24681885913795</v>
+        <v>46.22593589526264</v>
       </c>
       <c r="C14" t="n">
-        <v>8.570809289469178</v>
+        <v>13.72908244368091</v>
       </c>
       <c r="D14" t="n">
-        <v>80.0331797840759</v>
+        <v>79.00497273285417</v>
       </c>
       <c r="E14" t="n">
         <v>36</v>
@@ -736,13 +736,13 @@
         <v>44999</v>
       </c>
       <c r="B15" t="n">
-        <v>43.28674432900369</v>
+        <v>45.22697119039836</v>
       </c>
       <c r="C15" t="n">
-        <v>6.976126904086017</v>
+        <v>10.66182519764366</v>
       </c>
       <c r="D15" t="n">
-        <v>80.53057900376632</v>
+        <v>80.1249448884478</v>
       </c>
       <c r="E15" t="n">
         <v>36</v>
@@ -756,13 +756,13 @@
         <v>45006</v>
       </c>
       <c r="B16" t="n">
-        <v>42.87635903684419</v>
+        <v>44.29279068351081</v>
       </c>
       <c r="C16" t="n">
-        <v>10.29386265758923</v>
+        <v>13.04036273826959</v>
       </c>
       <c r="D16" t="n">
-        <v>77.20312713525057</v>
+        <v>77.40339392595865</v>
       </c>
       <c r="E16" t="n">
         <v>48</v>
@@ -837,19 +837,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>4102.608412253519</v>
+        <v>2953.678498786223</v>
       </c>
       <c r="C2" t="n">
-        <v>64.05160741350305</v>
+        <v>54.34775523226533</v>
       </c>
       <c r="D2" t="n">
-        <v>64.05160741350305</v>
+        <v>54.34775523226533</v>
       </c>
       <c r="E2" t="n">
-        <v>1.334408487781314</v>
+        <v>1.132244900672194</v>
       </c>
       <c r="F2" t="n">
-        <v>1.334408487781314</v>
+        <v>1.132244900672194</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -863,22 +863,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>634.6169115079737</v>
+        <v>496.1345916414921</v>
       </c>
       <c r="C3" t="n">
-        <v>25.19160398839212</v>
+        <v>22.2740789179147</v>
       </c>
       <c r="D3" t="n">
-        <v>19.34353085066759</v>
+        <v>19.09433322638039</v>
       </c>
       <c r="E3" t="n">
-        <v>0.503153691255027</v>
+        <v>0.6360860907405135</v>
       </c>
       <c r="F3" t="n">
-        <v>0.503153691255027</v>
+        <v>0.6360860907405135</v>
       </c>
       <c r="G3" t="n">
-        <v>0.704117179590516</v>
+        <v>0.708181895652934</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -889,22 +889,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1647.674015470711</v>
+        <v>1518.586100201704</v>
       </c>
       <c r="C4" t="n">
-        <v>40.59155103553831</v>
+        <v>38.96904027817087</v>
       </c>
       <c r="D4" t="n">
-        <v>38.71356945621262</v>
+        <v>37.03805111901657</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4825842314795503</v>
+        <v>0.4608029600291952</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5163638442771301</v>
+        <v>0.4965975347015338</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6490816703290303</v>
+        <v>0.611649080248837</v>
       </c>
       <c r="H4" t="n">
         <v>0.25</v>
@@ -915,25 +915,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>618.0268836896012</v>
+        <v>604.5146902547585</v>
       </c>
       <c r="C5" t="n">
-        <v>24.86014649372769</v>
+        <v>24.5868804498407</v>
       </c>
       <c r="D5" t="n">
-        <v>20.8050831942451</v>
+        <v>20.01526844492449</v>
       </c>
       <c r="E5" t="n">
-        <v>1.06315924089807</v>
+        <v>1.056960628218738</v>
       </c>
       <c r="F5" t="n">
-        <v>0.493944200934648</v>
+        <v>0.3713643405744037</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7261120125056442</v>
+        <v>0.6142486700809844</v>
       </c>
       <c r="H5" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACON4426106/OBACON4426106_Sell in_metricas.xlsx
+++ b/modelos/OBACON4426106/OBACON4426106_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44887</v>
       </c>
       <c r="B2" t="n">
-        <v>35.97015658814955</v>
+        <v>34.12990789443935</v>
       </c>
       <c r="C2" t="n">
-        <v>3.259500397008213</v>
+        <v>-0.1551656325077355</v>
       </c>
       <c r="D2" t="n">
-        <v>65.5373166170433</v>
+        <v>67.42286416271692</v>
       </c>
       <c r="E2" t="n">
         <v>84</v>
@@ -496,13 +496,13 @@
         <v>44897</v>
       </c>
       <c r="B3" t="n">
-        <v>8.310432511100014</v>
+        <v>2.828750258404234</v>
       </c>
       <c r="C3" t="n">
-        <v>-24.13273109856021</v>
+        <v>-33.85760698201511</v>
       </c>
       <c r="D3" t="n">
-        <v>39.71190606467844</v>
+        <v>36.12861731225703</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -516,13 +516,13 @@
         <v>44901</v>
       </c>
       <c r="B4" t="n">
-        <v>40.20711128881119</v>
+        <v>38.57030332489065</v>
       </c>
       <c r="C4" t="n">
-        <v>7.738619878791226</v>
+        <v>0.8211464333604774</v>
       </c>
       <c r="D4" t="n">
-        <v>70.66477336578502</v>
+        <v>74.38529802448954</v>
       </c>
       <c r="E4" t="n">
         <v>84</v>
@@ -536,13 +536,13 @@
         <v>44908</v>
       </c>
       <c r="B5" t="n">
-        <v>43.30602476564183</v>
+        <v>41.76494046061407</v>
       </c>
       <c r="C5" t="n">
-        <v>10.48041271693821</v>
+        <v>4.193879461646644</v>
       </c>
       <c r="D5" t="n">
-        <v>75.06995823174222</v>
+        <v>79.75182235765277</v>
       </c>
       <c r="E5" t="n">
         <v>60</v>
@@ -556,13 +556,13 @@
         <v>44915</v>
       </c>
       <c r="B6" t="n">
-        <v>44.36450288133113</v>
+        <v>42.68057083952593</v>
       </c>
       <c r="C6" t="n">
-        <v>13.20221195053925</v>
+        <v>7.887610941909839</v>
       </c>
       <c r="D6" t="n">
-        <v>78.00274399489726</v>
+        <v>77.61068545593756</v>
       </c>
       <c r="E6" t="n">
         <v>84</v>
@@ -576,13 +576,13 @@
         <v>44925</v>
       </c>
       <c r="B7" t="n">
-        <v>16.63346670083683</v>
+        <v>11.38614738199448</v>
       </c>
       <c r="C7" t="n">
-        <v>-18.2205703311099</v>
+        <v>-27.71502623159356</v>
       </c>
       <c r="D7" t="n">
-        <v>49.8370385461117</v>
+        <v>45.30202950093696</v>
       </c>
       <c r="E7" t="n">
         <v>24</v>
@@ -596,13 +596,13 @@
         <v>44960</v>
       </c>
       <c r="B8" t="n">
-        <v>17.43653296668205</v>
+        <v>12.51816918534744</v>
       </c>
       <c r="C8" t="n">
-        <v>-16.01669810312572</v>
+        <v>-23.06115783725047</v>
       </c>
       <c r="D8" t="n">
-        <v>51.08870024179933</v>
+        <v>46.48431387599027</v>
       </c>
       <c r="E8" t="n">
         <v>48</v>
@@ -616,13 +616,13 @@
         <v>44964</v>
       </c>
       <c r="B9" t="n">
-        <v>47.39365733057127</v>
+        <v>45.16588549241357</v>
       </c>
       <c r="C9" t="n">
-        <v>15.61012540959542</v>
+        <v>9.72770368225625</v>
       </c>
       <c r="D9" t="n">
-        <v>80.22078721204255</v>
+        <v>78.68924608617861</v>
       </c>
       <c r="E9" t="n">
         <v>84</v>
@@ -636,13 +636,13 @@
         <v>44971</v>
       </c>
       <c r="B10" t="n">
-        <v>52.16662691506677</v>
+        <v>50.15281634748891</v>
       </c>
       <c r="C10" t="n">
-        <v>18.99126009278247</v>
+        <v>13.15724453187461</v>
       </c>
       <c r="D10" t="n">
-        <v>84.25282567360736</v>
+        <v>84.4741522297216</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -656,13 +656,13 @@
         <v>44980</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.347755232265326</v>
+        <v>-16.05160741350241</v>
       </c>
       <c r="C11" t="n">
-        <v>-41.46321557253403</v>
+        <v>-51.3315568432774</v>
       </c>
       <c r="D11" t="n">
-        <v>25.28654645715748</v>
+        <v>18.09851998053046</v>
       </c>
       <c r="E11" t="n">
         <v>48</v>
@@ -676,13 +676,13 @@
         <v>44985</v>
       </c>
       <c r="B12" t="n">
-        <v>49.13296078468713</v>
+        <v>47.01141835240414</v>
       </c>
       <c r="C12" t="n">
-        <v>15.13480425797751</v>
+        <v>12.26768557393993</v>
       </c>
       <c r="D12" t="n">
-        <v>83.26799221676862</v>
+        <v>83.8197713447038</v>
       </c>
       <c r="E12" t="n">
         <v>12</v>
@@ -696,13 +696,13 @@
         <v>44988</v>
       </c>
       <c r="B13" t="n">
-        <v>19.62519941944284</v>
+        <v>15.20523088637293</v>
       </c>
       <c r="C13" t="n">
-        <v>-15.11879200920718</v>
+        <v>-21.58025308339338</v>
       </c>
       <c r="D13" t="n">
-        <v>55.52387460372079</v>
+        <v>49.27266005790588</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -716,13 +716,13 @@
         <v>44992</v>
       </c>
       <c r="B14" t="n">
-        <v>46.22593589526264</v>
+        <v>44.2468188591283</v>
       </c>
       <c r="C14" t="n">
-        <v>13.72908244368091</v>
+        <v>7.711441309932827</v>
       </c>
       <c r="D14" t="n">
-        <v>79.00497273285417</v>
+        <v>82.21244175054203</v>
       </c>
       <c r="E14" t="n">
         <v>36</v>
@@ -736,13 +736,13 @@
         <v>44999</v>
       </c>
       <c r="B15" t="n">
-        <v>45.22697119039836</v>
+        <v>43.28674432930119</v>
       </c>
       <c r="C15" t="n">
-        <v>10.66182519764366</v>
+        <v>6.864759299672426</v>
       </c>
       <c r="D15" t="n">
-        <v>80.1249448884478</v>
+        <v>80.62479192248567</v>
       </c>
       <c r="E15" t="n">
         <v>36</v>
@@ -756,13 +756,13 @@
         <v>45006</v>
       </c>
       <c r="B16" t="n">
-        <v>44.29279068351081</v>
+        <v>42.87635903768867</v>
       </c>
       <c r="C16" t="n">
-        <v>13.04036273826959</v>
+        <v>6.177923473855263</v>
       </c>
       <c r="D16" t="n">
-        <v>77.40339392595865</v>
+        <v>78.90458448789357</v>
       </c>
       <c r="E16" t="n">
         <v>48</v>
@@ -837,19 +837,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2953.678498786223</v>
+        <v>4102.608412253437</v>
       </c>
       <c r="C2" t="n">
-        <v>54.34775523226533</v>
+        <v>64.05160741350241</v>
       </c>
       <c r="D2" t="n">
-        <v>54.34775523226533</v>
+        <v>64.05160741350241</v>
       </c>
       <c r="E2" t="n">
-        <v>1.132244900672194</v>
+        <v>1.3344084877813</v>
       </c>
       <c r="F2" t="n">
-        <v>1.132244900672194</v>
+        <v>1.3344084877813</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -863,25 +863,25 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>496.1345916414921</v>
+        <v>634.6169114972936</v>
       </c>
       <c r="C3" t="n">
-        <v>22.2740789179147</v>
+        <v>25.19160398818014</v>
       </c>
       <c r="D3" t="n">
-        <v>19.09433322638039</v>
+        <v>19.34353085051275</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6360860907405135</v>
+        <v>0.503153691251503</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6360860907405135</v>
+        <v>0.503153691251503</v>
       </c>
       <c r="G3" t="n">
-        <v>0.708181895652934</v>
+        <v>0.7041171795823393</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -889,22 +889,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1518.586100201704</v>
+        <v>1647.674012290483</v>
       </c>
       <c r="C4" t="n">
-        <v>38.96904027817087</v>
+        <v>40.59155099636479</v>
       </c>
       <c r="D4" t="n">
-        <v>37.03805111901657</v>
+        <v>38.7135693701325</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4608029600291952</v>
+        <v>0.4825842300484653</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4965975347015338</v>
+        <v>0.5163638442594252</v>
       </c>
       <c r="G4" t="n">
-        <v>0.611649080248837</v>
+        <v>0.6490816683347636</v>
       </c>
       <c r="H4" t="n">
         <v>0.25</v>
@@ -915,22 +915,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>604.5146902547585</v>
+        <v>618.0268392871185</v>
       </c>
       <c r="C5" t="n">
-        <v>24.5868804498407</v>
+        <v>24.8601456006822</v>
       </c>
       <c r="D5" t="n">
-        <v>20.01526844492449</v>
+        <v>20.80508196472769</v>
       </c>
       <c r="E5" t="n">
-        <v>1.056960628218738</v>
+        <v>1.063159178753704</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3713643405744037</v>
+        <v>0.4939440397059866</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6142486700809844</v>
+        <v>0.7261119350790475</v>
       </c>
       <c r="H5" t="n">
         <v>0.625</v>
